--- a/heat-transfer-solver-Skevas-2024/MultilayerArchitecturesLibrary/Multilayer Architecture - Case 3.xlsx
+++ b/heat-transfer-solver-Skevas-2024/MultilayerArchitecturesLibrary/Multilayer Architecture - Case 3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE57F935-0049-469F-86EE-306BEE4B7CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF1ABCD-F955-4B05-86D7-A07D21DEE2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>MgO</t>
+  </si>
+  <si>
+    <t>Young Modulus</t>
+  </si>
+  <si>
+    <t>Stress</t>
+  </si>
+  <si>
+    <t>Pa</t>
   </si>
 </sst>
 </file>
@@ -419,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,10 +441,11 @@
     <col min="3" max="3" width="8.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="6" width="13.44140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +461,14 @@
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -465,8 +481,14 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -482,8 +504,14 @@
       <c r="E3" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
+      <c r="F3" s="2">
+        <v>300000000000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>166700000</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D5" s="3"/>
     </row>
   </sheetData>
